--- a/タイムライン.xlsx
+++ b/タイムライン.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b39814ffe3333ad7/ドキュメント/個人文書/文章/IdeaMemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{8C9A6C97-C972-4AEE-AA7C-F6F40E7BE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733BF135-CAAF-41D9-BA36-DF2C6D264844}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{8C9A6C97-C972-4AEE-AA7C-F6F40E7BE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD1133C-9299-455F-84F3-2E9E6D9D8FF6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7AC75197-DA16-44C8-A304-4A00A47DB452}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7AC75197-DA16-44C8-A304-4A00A47DB452}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="タイムライン" sheetId="1" r:id="rId1"/>
+    <sheet name="世の中の出来事" sheetId="2" r:id="rId2"/>
     <sheet name="司法試験スケジュール" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -582,16 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両親の死亡</t>
-    <rPh sb="0" eb="2">
-      <t>リョウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>両親の死亡の原因となった事故の判決をきっかけとして司法試験の勉強を始める。</t>
     <rPh sb="0" eb="2">
       <t>リョウシン</t>
@@ -1202,13 +1192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バブル崩壊・サリンテロ</t>
-    <rPh sb="3" eb="5">
-      <t>ホウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>阪神淡路大震災・地下鉄サリン事件・プリクラ・ルーズソックス</t>
     <rPh sb="0" eb="7">
       <t>ハンシンアワジダイシンサイ</t>
@@ -1225,6 +1208,32 @@
     <t>不況・孤独・ネット文化・iPhone発売</t>
     <rPh sb="18" eb="20">
       <t>ハツバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バブル崩壊・地下鉄サリンテロ</t>
+    <rPh sb="3" eb="5">
+      <t>ホウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チカテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両親の死亡（通り魔）</t>
+    <rPh sb="0" eb="2">
+      <t>リョウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1294,7 +1303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,12 +1325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1337,6 +1340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1658,9 +1665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB3004-6BF9-418F-99E2-96D4032DC4AE}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2002,10 +2009,10 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -2022,7 +2029,7 @@
         <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2039,7 +2046,7 @@
         <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2053,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
         <v>140</v>
@@ -2070,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -2087,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
         <v>104</v>
@@ -2104,10 +2111,10 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2121,7 +2128,7 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2135,7 +2142,7 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2149,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2240,7 +2247,7 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -2374,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E48FC68-9713-4698-926B-C16FBBE4D0BE}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2401,72 +2408,72 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2977,7 +2984,7 @@
       <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2988,7 +2995,7 @@
       <c r="B3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2999,7 +3006,7 @@
       <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3010,7 +3017,7 @@
       <c r="B5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3021,7 +3028,7 @@
       <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3032,7 +3039,7 @@
       <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3043,7 +3050,7 @@
       <c r="B8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3054,7 +3061,7 @@
       <c r="B9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3065,7 +3072,7 @@
       <c r="B10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3084,7 +3091,7 @@
       <c r="B12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3095,7 +3102,7 @@
       <c r="B13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3106,7 +3113,7 @@
       <c r="B14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3117,7 +3124,7 @@
       <c r="B15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3128,7 +3135,7 @@
       <c r="B16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3139,806 +3146,806 @@
       <c r="B17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>162</v>
-      </c>
-      <c r="D26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
         <v>164</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>165</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>166</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
         <v>168</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
         <v>172</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>173</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>177</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>178</v>
-      </c>
-      <c r="D30" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
         <v>181</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>182</v>
-      </c>
-      <c r="C33" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
         <v>184</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>185</v>
-      </c>
-      <c r="C34" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
         <v>187</v>
       </c>
-      <c r="B35" t="s">
-        <v>188</v>
-      </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
         <v>189</v>
       </c>
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
         <v>191</v>
       </c>
-      <c r="B37" t="s">
-        <v>192</v>
-      </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
-        <v>194</v>
-      </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
         <v>195</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>196</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="B40" t="s">
-        <v>199</v>
-      </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
         <v>200</v>
-      </c>
-      <c r="B41" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
         <v>181</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>182</v>
-      </c>
-      <c r="C44" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
         <v>203</v>
-      </c>
-      <c r="C45" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
         <v>209</v>
-      </c>
-      <c r="C50" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
         <v>181</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>182</v>
-      </c>
-      <c r="C55" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" t="s">
         <v>219</v>
-      </c>
-      <c r="C61" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
         <v>181</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" t="s">
         <v>224</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>225</v>
-      </c>
-      <c r="C67" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" t="s">
         <v>227</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>228</v>
-      </c>
-      <c r="C68" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" t="s">
         <v>244</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>245</v>
-      </c>
-      <c r="C88" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
         <v>247</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>248</v>
-      </c>
-      <c r="C89" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" t="s">
         <v>250</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>251</v>
-      </c>
-      <c r="C90" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
         <v>253</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/タイムライン.xlsx
+++ b/タイムライン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b39814ffe3333ad7/ドキュメント/個人文書/文章/IdeaMemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{8C9A6C97-C972-4AEE-AA7C-F6F40E7BE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD1133C-9299-455F-84F3-2E9E6D9D8FF6}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{8C9A6C97-C972-4AEE-AA7C-F6F40E7BE87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2735FE61-C67E-455A-9098-50C0B517BA21}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7AC75197-DA16-44C8-A304-4A00A47DB452}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="315">
   <si>
     <t>誕生</t>
     <rPh sb="0" eb="2">
@@ -456,13 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ちびっこモトクロスを始める</t>
-    <rPh sb="10" eb="11">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
   </si>
   <si>
@@ -617,31 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近所の工務店の社長が密かに支援する。自活開始。</t>
-    <rPh sb="0" eb="2">
-      <t>キンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウムテン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒソ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジカツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>判事補任官   19歳</t>
   </si>
   <si>
@@ -1222,7 +1190,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両親の死亡（通り魔）</t>
+    <t>一般の学年</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒幕</t>
+    <rPh sb="0" eb="2">
+      <t>クロマク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットに出会う。闇落ち</t>
+    <rPh sb="4" eb="6">
+      <t>デア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤミオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両親の死亡（通り魔の巻き添えをくらう）近所の工務店の社長が陰ながら支援する。自活開始。</t>
     <rPh sb="0" eb="2">
       <t>リョウシン</t>
     </rPh>
@@ -1234,6 +1229,74 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゾ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇のネット世界でのし上がる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンにはまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転校、虐められるようになる</t>
+    <rPh sb="0" eb="2">
+      <t>テンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家に引きこもってパソコンに没頭</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボットウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏での稼ぎで不自由が無くなる。表面はおとなしい</t>
+    <rPh sb="0" eb="1">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フジユウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1666,28 +1729,34 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="87.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>29221</v>
       </c>
@@ -1696,7 +1765,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>29587</v>
       </c>
@@ -1705,7 +1774,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>29952</v>
       </c>
@@ -1714,7 +1783,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>30317</v>
       </c>
@@ -1723,7 +1792,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>30682</v>
       </c>
@@ -1732,7 +1801,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>31048</v>
       </c>
@@ -1741,7 +1810,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>31413</v>
       </c>
@@ -1750,7 +1819,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>31778</v>
       </c>
@@ -1759,7 +1828,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>32143</v>
       </c>
@@ -1768,7 +1837,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>32509</v>
       </c>
@@ -1777,7 +1846,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>32516</v>
       </c>
@@ -1786,7 +1855,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>32874</v>
       </c>
@@ -1795,7 +1864,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>33239</v>
       </c>
@@ -1804,7 +1873,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>33604</v>
       </c>
@@ -1813,7 +1882,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>33970</v>
       </c>
@@ -1896,9 +1965,6 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1966,6 +2032,9 @@
       <c r="D28" t="s">
         <v>97</v>
       </c>
+      <c r="G28" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -1980,6 +2049,9 @@
       <c r="D29" t="s">
         <v>98</v>
       </c>
+      <c r="G29" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
@@ -1994,6 +2066,9 @@
       <c r="D30" t="s">
         <v>99</v>
       </c>
+      <c r="G30" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -2009,10 +2084,10 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
+        <v>309</v>
+      </c>
+      <c r="G31" t="s">
         <v>308</v>
-      </c>
-      <c r="G31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -2029,10 +2104,13 @@
         <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>40179</v>
       </c>
@@ -2046,10 +2124,13 @@
         <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="G33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>40544</v>
       </c>
@@ -2060,13 +2141,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>40909</v>
       </c>
@@ -2077,13 +2158,13 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>41275</v>
       </c>
@@ -2094,13 +2175,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>41640</v>
       </c>
@@ -2111,13 +2192,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>42005</v>
       </c>
@@ -2128,10 +2209,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>42370</v>
       </c>
@@ -2142,10 +2223,10 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>42736</v>
       </c>
@@ -2156,10 +2237,10 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43101</v>
       </c>
@@ -2170,7 +2251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43466</v>
       </c>
@@ -2181,7 +2262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43466</v>
       </c>
@@ -2192,7 +2273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43831</v>
       </c>
@@ -2203,7 +2284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44197</v>
       </c>
@@ -2214,7 +2295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44562</v>
       </c>
@@ -2225,7 +2306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44927</v>
       </c>
@@ -2236,7 +2317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45292</v>
       </c>
@@ -2247,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -2382,7 +2463,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2409,16 +2490,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2432,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2971,981 +3052,981 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>160</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
         <v>167</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>168</v>
-      </c>
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
         <v>171</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>172</v>
-      </c>
-      <c r="C29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
         <v>175</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>176</v>
-      </c>
-      <c r="C30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
         <v>180</v>
-      </c>
-      <c r="B33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" t="s">
         <v>183</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
         <v>194</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
         <v>180</v>
-      </c>
-      <c r="B44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
         <v>180</v>
-      </c>
-      <c r="B55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
         <v>180</v>
-      </c>
-      <c r="B66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" t="s">
         <v>223</v>
-      </c>
-      <c r="B67" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
         <v>226</v>
-      </c>
-      <c r="B68" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" t="s">
         <v>243</v>
-      </c>
-      <c r="B88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" t="s">
         <v>246</v>
-      </c>
-      <c r="B89" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" t="s">
         <v>249</v>
-      </c>
-      <c r="B90" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" t="s">
         <v>252</v>
-      </c>
-      <c r="B91" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
